--- a/테이블정의서/테이블정의서_1015.xlsx
+++ b/테이블정의서/테이블정의서_1015.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="231">
   <si>
     <t>테이블정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,10 +255,6 @@
     <t>CHAR</t>
   </si>
   <si>
-    <t>활성된회원:Y / 휴면:N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>접속시마다 업데이트 (1년 이상 접속 안하면 휴면으로 전환)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -887,6 +883,26 @@
   </si>
   <si>
     <t>MOVIEID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극장아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성된회원:Y / 휴면:N / 대기 : W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1311,13 +1327,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1333,9 +1352,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1654,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117:E118"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1776,16 +1792,16 @@
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="31" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="32"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1806,7 +1822,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>34</v>
@@ -1929,29 +1945,29 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.6">
@@ -1991,7 +2007,7 @@
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.6">
@@ -2011,7 +2027,7 @@
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -2032,10 +2048,10 @@
         <v>44</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
@@ -2043,16 +2059,16 @@
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="39" t="s">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="34"/>
       <c r="H31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2061,15 +2077,15 @@
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
+      <c r="B32" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A33" s="4" t="s">
@@ -2099,13 +2115,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="D34" s="9">
         <v>20</v>
@@ -2118,15 +2134,15 @@
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>43</v>
@@ -2143,13 +2159,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="C36" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -2161,10 +2177,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>43</v>
@@ -2178,15 +2194,15 @@
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>43</v>
@@ -2203,10 +2219,10 @@
     </row>
     <row r="39" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A39" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>43</v>
@@ -2226,18 +2242,18 @@
       <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="31" t="s">
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="32"/>
+      <c r="G42" s="33"/>
       <c r="H42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.6">
@@ -2245,7 +2261,7 @@
         <v>31</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
@@ -2282,13 +2298,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A45" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="C45" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" s="9">
         <v>20</v>
@@ -2301,15 +2317,15 @@
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A46" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>43</v>
@@ -2326,88 +2342,88 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A47" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="C47" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="D47" s="12">
         <v>1</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A48" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="C48" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="D48" s="12">
         <v>20</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="C49" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A50" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="C50" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D50" s="16">
         <v>16</v>
       </c>
       <c r="E50" s="16"/>
       <c r="F50" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
@@ -2415,33 +2431,33 @@
       <c r="A53" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="39" t="s">
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="39"/>
+      <c r="G53" s="34"/>
       <c r="H53" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="35"/>
+      <c r="B54" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="4" t="s">
@@ -2471,19 +2487,19 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A56" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="C56" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D56" s="9">
         <v>20</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>44</v>
@@ -2493,10 +2509,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>43</v>
@@ -2513,19 +2529,19 @@
     </row>
     <row r="58" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A58" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="C58" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="D58" s="16">
         <v>20</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F58" s="16" t="s">
         <v>44</v>
@@ -2538,16 +2554,16 @@
       <c r="A61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="39" t="s">
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="39"/>
+      <c r="G61" s="34"/>
       <c r="H61" s="1" t="s">
         <v>14</v>
       </c>
@@ -2556,15 +2572,15 @@
       <c r="A62" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="35"/>
+      <c r="B62" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="36"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="4" t="s">
@@ -2594,177 +2610,177 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="C64" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D64" s="9">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="C65" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" s="9">
         <v>4</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="C66" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D66" s="9">
         <v>1</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A67" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="C67" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D67" s="9">
         <v>1</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H67" s="23"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="C68" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D68" s="9">
         <v>1</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H68" s="23"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="C69" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D69" s="9">
         <v>1</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H69" s="23"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A70" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="C70" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D70" s="9">
         <v>1</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H70" s="11"/>
     </row>
     <row r="71" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A71" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>131</v>
-      </c>
       <c r="C71" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D71" s="16">
         <v>1</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H71" s="17"/>
     </row>
@@ -2773,33 +2789,33 @@
       <c r="A74" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="39" t="s">
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="39"/>
+      <c r="G74" s="34"/>
       <c r="H74" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="35"/>
+      <c r="B75" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="36"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="4" t="s">
@@ -2829,19 +2845,19 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="D77" s="9">
         <v>20</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>44</v>
@@ -2851,100 +2867,100 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="C78" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78" s="9">
         <v>20</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="10"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="C79" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="10"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="C80" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D80" s="9">
         <v>100</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="10"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D81" s="9">
         <v>1</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="10"/>
@@ -2964,16 +2980,16 @@
       <c r="A86" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="39" t="s">
+      <c r="B86" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G86" s="39"/>
+      <c r="G86" s="34"/>
       <c r="H86" s="1" t="s">
         <v>23</v>
       </c>
@@ -2982,15 +2998,15 @@
       <c r="A87" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="35"/>
+      <c r="B87" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="36"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A88" s="4" t="s">
@@ -3020,30 +3036,30 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A89" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="C89" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="18"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A90" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>43</v>
@@ -3052,20 +3068,20 @@
         <v>320</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="10"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A91" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>43</v>
@@ -3075,17 +3091,17 @@
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A92" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>43</v>
@@ -3093,7 +3109,9 @@
       <c r="D92" s="9">
         <v>20</v>
       </c>
-      <c r="E92" s="9"/>
+      <c r="E92" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="F92" s="9" t="s">
         <v>44</v>
       </c>
@@ -3102,10 +3120,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A93" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>43</v>
@@ -3122,31 +3140,31 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A94" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="C94" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="10"/>
     </row>
     <row r="95" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A95" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="C95" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D95" s="9">
         <v>4</v>
@@ -3160,18 +3178,18 @@
     </row>
     <row r="96" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A96" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="C96" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G96" s="16"/>
       <c r="H96" s="22"/>
@@ -3181,18 +3199,18 @@
       <c r="A99" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="33" t="s">
+      <c r="B99" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="31" t="s">
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="32"/>
+      <c r="G99" s="33"/>
       <c r="H99" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.6">
@@ -3235,100 +3253,100 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A102" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>155</v>
-      </c>
       <c r="C102" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D102" s="9">
         <v>20</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="10"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A103" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="C103" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="10"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A104" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>159</v>
-      </c>
       <c r="C104" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="10"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A105" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="C105" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D105" s="9">
         <v>20</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A106" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B106" s="15" t="s">
-        <v>150</v>
-      </c>
       <c r="C106" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G106" s="16"/>
       <c r="H106" s="22"/>
@@ -3338,16 +3356,16 @@
       <c r="A109" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="33" t="s">
+      <c r="B109" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="31" t="s">
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G109" s="32"/>
+      <c r="G109" s="33"/>
       <c r="H109" s="1" t="s">
         <v>25</v>
       </c>
@@ -3392,10 +3410,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A112" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>43</v>
@@ -3404,7 +3422,7 @@
         <v>320</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F112" s="9" t="s">
         <v>44</v>
@@ -3414,13 +3432,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A113" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="C113" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D113" s="9">
         <v>10</v>
@@ -3431,18 +3449,18 @@
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A114" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>169</v>
-      </c>
       <c r="C114" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="8"/>
@@ -3454,46 +3472,46 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A115" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="10"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A116" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="10"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A117" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>43</v>
@@ -3503,17 +3521,17 @@
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="10"/>
     </row>
     <row r="118" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A118" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B118" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>43</v>
@@ -3533,16 +3551,16 @@
       <c r="A121" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="33" t="s">
+      <c r="B121" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="31" t="s">
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G121" s="32"/>
+      <c r="G121" s="33"/>
       <c r="H121" s="1" t="s">
         <v>26</v>
       </c>
@@ -3552,7 +3570,7 @@
         <v>31</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C122" s="29"/>
       <c r="D122" s="29"/>
@@ -3566,7 +3584,7 @@
         <v>33</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>35</v>
@@ -3589,13 +3607,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A124" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="C124" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
@@ -3606,37 +3624,37 @@
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A125" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D125" s="24">
         <v>20</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="18"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A126" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>43</v>
@@ -3645,7 +3663,7 @@
         <v>320</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="F126" s="9" t="s">
         <v>44</v>
@@ -3655,13 +3673,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A127" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B127" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="C127" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D127" s="9">
         <v>40</v>
@@ -3675,13 +3693,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A128" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D128" s="9">
         <v>1000</v>
@@ -3695,13 +3713,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A129" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B129" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="C129" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
@@ -3712,18 +3730,18 @@
         <v>0</v>
       </c>
       <c r="H129" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A130" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B130" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="B130" s="15" t="s">
-        <v>186</v>
-      </c>
       <c r="C130" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D130" s="16"/>
       <c r="E130" s="16"/>
@@ -3734,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="H130" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
@@ -3742,16 +3760,16 @@
       <c r="A133" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B133" s="33" t="s">
+      <c r="B133" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="31" t="s">
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G133" s="32"/>
+      <c r="G133" s="33"/>
       <c r="H133" s="1" t="s">
         <v>30</v>
       </c>
@@ -3761,7 +3779,7 @@
         <v>31</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C134" s="29"/>
       <c r="D134" s="29"/>
@@ -3798,13 +3816,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A136" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
@@ -3815,18 +3833,18 @@
       </c>
       <c r="G136" s="9"/>
       <c r="H136" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A137" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B137" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="C137" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D137" s="9">
         <v>1</v>
@@ -3837,15 +3855,15 @@
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A138" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>43</v>
@@ -3859,18 +3877,18 @@
       </c>
       <c r="G138" s="9"/>
       <c r="H138" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A139" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B139" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="C139" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D139" s="9">
         <v>100</v>
@@ -3884,13 +3902,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A140" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B140" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B140" s="8" t="s">
-        <v>198</v>
-      </c>
       <c r="C140" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D140" s="9">
         <v>4000</v>
@@ -3904,10 +3922,10 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A141" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B141" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>55</v>
@@ -3922,64 +3940,64 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A142" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B142" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B142" s="8" t="s">
-        <v>200</v>
-      </c>
       <c r="C142" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D142" s="9">
         <v>1</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G142" s="9"/>
       <c r="H142" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A143" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B143" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B143" s="8" t="s">
-        <v>203</v>
-      </c>
       <c r="C143" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G143" s="9"/>
       <c r="H143" s="18"/>
     </row>
     <row r="144" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A144" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B144" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="B144" s="15" t="s">
-        <v>205</v>
-      </c>
       <c r="C144" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D144" s="16">
         <v>1</v>
       </c>
       <c r="E144" s="16"/>
       <c r="F144" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G144" s="16"/>
       <c r="H144" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
@@ -3987,18 +4005,18 @@
       <c r="A146" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="33" t="s">
+      <c r="B146" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G146" s="33"/>
+      <c r="H146" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="G146" s="32"/>
-      <c r="H146" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.6">
@@ -4006,7 +4024,7 @@
         <v>31</v>
       </c>
       <c r="B147" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C147" s="29"/>
       <c r="D147" s="29"/>
@@ -4043,13 +4061,13 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A149" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D149" s="9">
         <v>20</v>
@@ -4065,13 +4083,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A150" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B150" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="C150" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D150" s="9">
         <v>100</v>
@@ -4085,13 +4103,13 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A151" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B151" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B151" s="8" t="s">
-        <v>215</v>
-      </c>
       <c r="C151" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D151" s="9">
         <v>1</v>
@@ -4102,18 +4120,18 @@
       </c>
       <c r="G151" s="9"/>
       <c r="H151" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A152" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B152" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B152" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="C152" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
@@ -4125,13 +4143,13 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A153" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B153" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>220</v>
-      </c>
       <c r="C153" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D153" s="9">
         <v>4</v>
@@ -4145,13 +4163,13 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A154" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B154" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B154" s="8" t="s">
-        <v>222</v>
-      </c>
       <c r="C154" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
@@ -4193,12 +4211,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F53:G53"/>
     <mergeCell ref="B100:H100"/>
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="F61:G61"/>
@@ -4211,24 +4241,12 @@
     <mergeCell ref="B87:H87"/>
     <mergeCell ref="B99:E99"/>
     <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="F121:G121"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/테이블정의서/테이블정의서_1015.xlsx
+++ b/테이블정의서/테이블정의서_1015.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="235">
   <si>
     <t>테이블정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -903,6 +903,22 @@
   </si>
   <si>
     <t>활성된회원:Y / 휴면:N / 대기 : W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANCELDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매 취소 시 해당 날짜로 업데이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1327,16 +1343,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1352,6 +1365,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1670,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1792,16 +1808,16 @@
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="32" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2059,16 +2075,16 @@
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="34" t="s">
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="34"/>
+      <c r="G31" s="39"/>
       <c r="H31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2077,15 +2093,15 @@
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A33" s="4" t="s">
@@ -2242,16 +2258,16 @@
       <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="32" t="s">
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="33"/>
+      <c r="G42" s="32"/>
       <c r="H42" s="1" t="s">
         <v>90</v>
       </c>
@@ -2431,16 +2447,16 @@
       <c r="A53" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="34" t="s">
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="34"/>
+      <c r="G53" s="39"/>
       <c r="H53" s="1" t="s">
         <v>108</v>
       </c>
@@ -2449,15 +2465,15 @@
       <c r="A54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="35"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="4" t="s">
@@ -2554,16 +2570,16 @@
       <c r="A61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="34" t="s">
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="34"/>
+      <c r="G61" s="39"/>
       <c r="H61" s="1" t="s">
         <v>14</v>
       </c>
@@ -2572,15 +2588,15 @@
       <c r="A62" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="35"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="4" t="s">
@@ -2789,16 +2805,16 @@
       <c r="A74" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="34" t="s">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="34"/>
+      <c r="G74" s="39"/>
       <c r="H74" s="1" t="s">
         <v>133</v>
       </c>
@@ -2807,15 +2823,15 @@
       <c r="A75" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="36"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="35"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="4" t="s">
@@ -2980,16 +2996,16 @@
       <c r="A86" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="34" t="s">
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G86" s="34"/>
+      <c r="G86" s="39"/>
       <c r="H86" s="1" t="s">
         <v>23</v>
       </c>
@@ -2998,15 +3014,15 @@
       <c r="A87" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="36"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="35"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A88" s="4" t="s">
@@ -3194,21 +3210,41 @@
       <c r="G96" s="16"/>
       <c r="H96" s="22"/>
     </row>
+    <row r="97" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A97" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G97" s="16"/>
+      <c r="H97" s="22" t="s">
+        <v>234</v>
+      </c>
+    </row>
     <row r="98" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="99" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A99" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="32" t="s">
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="33"/>
+      <c r="G99" s="32"/>
       <c r="H99" s="1" t="s">
         <v>152</v>
       </c>
@@ -3356,16 +3392,16 @@
       <c r="A109" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="31" t="s">
+      <c r="B109" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="31"/>
-      <c r="F109" s="32" t="s">
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G109" s="33"/>
+      <c r="G109" s="32"/>
       <c r="H109" s="1" t="s">
         <v>25</v>
       </c>
@@ -3551,16 +3587,16 @@
       <c r="A121" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="32" t="s">
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G121" s="33"/>
+      <c r="G121" s="32"/>
       <c r="H121" s="1" t="s">
         <v>26</v>
       </c>
@@ -3760,16 +3796,16 @@
       <c r="A133" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B133" s="31" t="s">
+      <c r="B133" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
-      <c r="F133" s="32" t="s">
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G133" s="33"/>
+      <c r="G133" s="32"/>
       <c r="H133" s="1" t="s">
         <v>30</v>
       </c>
@@ -4005,16 +4041,16 @@
       <c r="A146" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="31" t="s">
+      <c r="B146" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="32" t="s">
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G146" s="33"/>
+      <c r="G146" s="32"/>
       <c r="H146" s="1" t="s">
         <v>212</v>
       </c>
@@ -4211,12 +4247,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="F99:G99"/>
     <mergeCell ref="B54:H54"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -4229,24 +4277,12 @@
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B100:H100"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="B133:E133"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/테이블정의서/테이블정의서_1015.xlsx
+++ b/테이블정의서/테이블정의서_1015.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="237">
   <si>
     <t>테이블정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -919,6 +919,14 @@
   </si>
   <si>
     <t>예매 취소 시 해당 날짜로 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1343,13 +1351,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1365,9 +1376,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1686,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1803,21 +1811,29 @@
         <v>30</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" t="s">
+        <v>236</v>
+      </c>
+    </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="16" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="31" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="32"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2075,16 +2091,16 @@
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="39" t="s">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="34"/>
       <c r="H31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2093,15 +2109,15 @@
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A33" s="4" t="s">
@@ -2258,16 +2274,16 @@
       <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="31" t="s">
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="32"/>
+      <c r="G42" s="33"/>
       <c r="H42" s="1" t="s">
         <v>90</v>
       </c>
@@ -2447,16 +2463,16 @@
       <c r="A53" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="39" t="s">
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="39"/>
+      <c r="G53" s="34"/>
       <c r="H53" s="1" t="s">
         <v>108</v>
       </c>
@@ -2465,15 +2481,15 @@
       <c r="A54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="4" t="s">
@@ -2570,16 +2586,16 @@
       <c r="A61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="39" t="s">
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="39"/>
+      <c r="G61" s="34"/>
       <c r="H61" s="1" t="s">
         <v>14</v>
       </c>
@@ -2588,15 +2604,15 @@
       <c r="A62" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="36"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="4" t="s">
@@ -2805,16 +2821,16 @@
       <c r="A74" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="39" t="s">
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="39"/>
+      <c r="G74" s="34"/>
       <c r="H74" s="1" t="s">
         <v>133</v>
       </c>
@@ -2823,15 +2839,15 @@
       <c r="A75" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="36"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="4" t="s">
@@ -2996,16 +3012,16 @@
       <c r="A86" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="33" t="s">
+      <c r="B86" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="39" t="s">
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G86" s="39"/>
+      <c r="G86" s="34"/>
       <c r="H86" s="1" t="s">
         <v>23</v>
       </c>
@@ -3014,15 +3030,15 @@
       <c r="A87" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="36"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A88" s="4" t="s">
@@ -3235,16 +3251,16 @@
       <c r="A99" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="33" t="s">
+      <c r="B99" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="31" t="s">
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="32"/>
+      <c r="G99" s="33"/>
       <c r="H99" s="1" t="s">
         <v>152</v>
       </c>
@@ -3392,16 +3408,16 @@
       <c r="A109" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="33" t="s">
+      <c r="B109" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="31" t="s">
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G109" s="32"/>
+      <c r="G109" s="33"/>
       <c r="H109" s="1" t="s">
         <v>25</v>
       </c>
@@ -3587,16 +3603,16 @@
       <c r="A121" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="33" t="s">
+      <c r="B121" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="31" t="s">
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G121" s="32"/>
+      <c r="G121" s="33"/>
       <c r="H121" s="1" t="s">
         <v>26</v>
       </c>
@@ -3796,16 +3812,16 @@
       <c r="A133" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B133" s="33" t="s">
+      <c r="B133" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="31" t="s">
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G133" s="32"/>
+      <c r="G133" s="33"/>
       <c r="H133" s="1" t="s">
         <v>30</v>
       </c>
@@ -4041,16 +4057,16 @@
       <c r="A146" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="33" t="s">
+      <c r="B146" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="31" t="s">
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G146" s="32"/>
+      <c r="G146" s="33"/>
       <c r="H146" s="1" t="s">
         <v>212</v>
       </c>
@@ -4247,12 +4263,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F53:G53"/>
     <mergeCell ref="B100:H100"/>
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="F61:G61"/>
@@ -4265,24 +4293,12 @@
     <mergeCell ref="B87:H87"/>
     <mergeCell ref="B99:E99"/>
     <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="F121:G121"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/테이블정의서/테이블정의서_1015.xlsx
+++ b/테이블정의서/테이블정의서_1015.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="239">
   <si>
     <t>테이블정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -927,6 +927,14 @@
   </si>
   <si>
     <t>MOVIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1351,16 +1359,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1376,6 +1381,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1695,7 +1703,7 @@
   <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1824,16 +1832,16 @@
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="32" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2091,16 +2099,16 @@
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="34" t="s">
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="34"/>
+      <c r="G31" s="39"/>
       <c r="H31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2109,15 +2117,15 @@
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A33" s="4" t="s">
@@ -2274,16 +2282,16 @@
       <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="32" t="s">
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="33"/>
+      <c r="G42" s="32"/>
       <c r="H42" s="1" t="s">
         <v>90</v>
       </c>
@@ -2463,16 +2471,16 @@
       <c r="A53" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="34" t="s">
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="34"/>
+      <c r="G53" s="39"/>
       <c r="H53" s="1" t="s">
         <v>108</v>
       </c>
@@ -2481,15 +2489,15 @@
       <c r="A54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="35"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="4" t="s">
@@ -2586,16 +2594,16 @@
       <c r="A61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="34" t="s">
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="34"/>
+      <c r="G61" s="39"/>
       <c r="H61" s="1" t="s">
         <v>14</v>
       </c>
@@ -2604,15 +2612,15 @@
       <c r="A62" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="35"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="4" t="s">
@@ -2821,16 +2829,16 @@
       <c r="A74" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="34" t="s">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="34"/>
+      <c r="G74" s="39"/>
       <c r="H74" s="1" t="s">
         <v>133</v>
       </c>
@@ -2839,15 +2847,15 @@
       <c r="A75" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="36"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="35"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="4" t="s">
@@ -3012,16 +3020,16 @@
       <c r="A86" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="34" t="s">
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G86" s="34"/>
+      <c r="G86" s="39"/>
       <c r="H86" s="1" t="s">
         <v>23</v>
       </c>
@@ -3030,15 +3038,15 @@
       <c r="A87" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="36"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="35"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A88" s="4" t="s">
@@ -3251,16 +3259,16 @@
       <c r="A99" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="32" t="s">
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="33"/>
+      <c r="G99" s="32"/>
       <c r="H99" s="1" t="s">
         <v>152</v>
       </c>
@@ -3408,16 +3416,16 @@
       <c r="A109" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="31" t="s">
+      <c r="B109" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="31"/>
-      <c r="F109" s="32" t="s">
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G109" s="33"/>
+      <c r="G109" s="32"/>
       <c r="H109" s="1" t="s">
         <v>25</v>
       </c>
@@ -3603,16 +3611,16 @@
       <c r="A121" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="32" t="s">
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G121" s="33"/>
+      <c r="G121" s="32"/>
       <c r="H121" s="1" t="s">
         <v>26</v>
       </c>
@@ -3812,16 +3820,16 @@
       <c r="A133" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B133" s="31" t="s">
+      <c r="B133" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
-      <c r="F133" s="32" t="s">
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G133" s="33"/>
+      <c r="G133" s="32"/>
       <c r="H133" s="1" t="s">
         <v>30</v>
       </c>
@@ -4057,16 +4065,16 @@
       <c r="A146" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="31" t="s">
+      <c r="B146" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="32" t="s">
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G146" s="33"/>
+      <c r="G146" s="32"/>
       <c r="H146" s="1" t="s">
         <v>212</v>
       </c>
@@ -4232,7 +4240,9 @@
       <c r="H154" s="18"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A155" s="7"/>
+      <c r="A155" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="B155" s="8"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -4242,7 +4252,9 @@
       <c r="H155" s="18"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A156" s="7"/>
+      <c r="A156" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="B156" s="8"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -4263,12 +4275,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="F99:G99"/>
     <mergeCell ref="B54:H54"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -4281,24 +4305,12 @@
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B100:H100"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="B133:E133"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/테이블정의서/테이블정의서_1015.xlsx
+++ b/테이블정의서/테이블정의서_1015.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSM\Desktop\ParkBox\테이블정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ParkBox\테이블정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C19F9D-4F0B-47CB-A14D-3359E380158A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12578"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -894,10 +887,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>극장아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -935,13 +924,17 @@
   </si>
   <si>
     <t>배우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극장이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1359,13 +1352,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1381,9 +1377,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1699,31 +1692,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I128" sqref="I128"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.6875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="64.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1731,7 +1724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1739,7 +1732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1747,7 +1740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1755,7 +1748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1763,7 +1756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1771,7 +1764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1779,7 +1772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1787,7 +1780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1795,7 +1788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1803,7 +1796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1811,7 +1804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1819,34 +1812,34 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" t="s">
         <v>235</v>
       </c>
-      <c r="B14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.6">
+    </row>
+    <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="31" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="32"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1860,7 +1853,7 @@
       <c r="G17" s="29"/>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>89</v>
       </c>
@@ -1886,7 +1879,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>41</v>
       </c>
@@ -1910,7 +1903,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -1932,7 +1925,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>49</v>
       </c>
@@ -1952,7 +1945,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
@@ -1972,7 +1965,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>53</v>
       </c>
@@ -1990,7 +1983,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>68</v>
       </c>
@@ -2010,7 +2003,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>56</v>
       </c>
@@ -2030,7 +2023,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>59</v>
       </c>
@@ -2050,7 +2043,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>61</v>
       </c>
@@ -2070,7 +2063,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>63</v>
       </c>
@@ -2091,43 +2084,43 @@
         <v>224</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="39" t="s">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="34"/>
       <c r="H31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2153,7 +2146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>74</v>
       </c>
@@ -2177,7 +2170,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>78</v>
       </c>
@@ -2197,7 +2190,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>80</v>
       </c>
@@ -2215,7 +2208,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>82</v>
       </c>
@@ -2237,7 +2230,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>85</v>
       </c>
@@ -2257,7 +2250,7 @@
       <c r="G38" s="9"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
         <v>87</v>
       </c>
@@ -2277,26 +2270,26 @@
       <c r="G39" s="16"/>
       <c r="H39" s="17"/>
     </row>
-    <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="31" t="s">
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="32"/>
+      <c r="G42" s="33"/>
       <c r="H42" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>31</v>
       </c>
@@ -2310,7 +2303,7 @@
       <c r="G43" s="29"/>
       <c r="H43" s="30"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>33</v>
       </c>
@@ -2336,7 +2329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>92</v>
       </c>
@@ -2360,7 +2353,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>94</v>
       </c>
@@ -2380,7 +2373,7 @@
       <c r="G46" s="9"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>96</v>
       </c>
@@ -2402,7 +2395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
         <v>74</v>
       </c>
@@ -2426,7 +2419,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
         <v>102</v>
       </c>
@@ -2444,7 +2437,7 @@
       <c r="G49" s="12"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>105</v>
       </c>
@@ -2466,40 +2459,40 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="39" t="s">
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="39"/>
+      <c r="G53" s="34"/>
       <c r="H53" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="35"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>33</v>
       </c>
@@ -2525,7 +2518,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>110</v>
       </c>
@@ -2547,7 +2540,7 @@
       <c r="G56" s="9"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>113</v>
       </c>
@@ -2567,7 +2560,7 @@
       <c r="G57" s="9"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
         <v>74</v>
       </c>
@@ -2589,40 +2582,40 @@
       <c r="G58" s="16"/>
       <c r="H58" s="22"/>
     </row>
-    <row r="60" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="39" t="s">
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="39"/>
+      <c r="G61" s="34"/>
       <c r="H61" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="35"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="36"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>33</v>
       </c>
@@ -2648,7 +2641,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>110</v>
       </c>
@@ -2670,7 +2663,7 @@
       <c r="G64" s="9"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>116</v>
       </c>
@@ -2690,7 +2683,7 @@
       <c r="G65" s="9"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>118</v>
       </c>
@@ -2714,7 +2707,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>121</v>
       </c>
@@ -2736,7 +2729,7 @@
       </c>
       <c r="H67" s="23"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>123</v>
       </c>
@@ -2758,7 +2751,7 @@
       </c>
       <c r="H68" s="23"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>125</v>
       </c>
@@ -2780,7 +2773,7 @@
       </c>
       <c r="H69" s="23"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>127</v>
       </c>
@@ -2802,7 +2795,7 @@
       </c>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="14" t="s">
         <v>129</v>
       </c>
@@ -2824,40 +2817,40 @@
       </c>
       <c r="H71" s="17"/>
     </row>
-    <row r="73" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="39" t="s">
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="39"/>
+      <c r="G74" s="34"/>
       <c r="H74" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="35"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="36"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>33</v>
       </c>
@@ -2883,7 +2876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>74</v>
       </c>
@@ -2905,7 +2898,7 @@
       <c r="G77" s="9"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>110</v>
       </c>
@@ -2927,7 +2920,7 @@
       <c r="G78" s="9"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>134</v>
       </c>
@@ -2945,7 +2938,7 @@
       <c r="G79" s="9"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>144</v>
       </c>
@@ -2965,7 +2958,7 @@
       <c r="G80" s="9"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>143</v>
       </c>
@@ -2987,7 +2980,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>138</v>
       </c>
@@ -3005,7 +2998,7 @@
       <c r="G82" s="9"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="14"/>
       <c r="B83" s="15"/>
       <c r="C83" s="16"/>
@@ -3015,40 +3008,40 @@
       <c r="G83" s="16"/>
       <c r="H83" s="22"/>
     </row>
-    <row r="85" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="33" t="s">
+      <c r="B86" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="39" t="s">
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G86" s="39"/>
+      <c r="G86" s="34"/>
       <c r="H86" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="35"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="36"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>33</v>
       </c>
@@ -3074,7 +3067,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>148</v>
       </c>
@@ -3094,7 +3087,7 @@
       <c r="G89" s="9"/>
       <c r="H89" s="18"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>150</v>
       </c>
@@ -3116,7 +3109,7 @@
       <c r="G90" s="9"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>144</v>
       </c>
@@ -3136,9 +3129,9 @@
       <c r="G91" s="9"/>
       <c r="H91" s="26"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>79</v>
@@ -3150,7 +3143,7 @@
         <v>20</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>44</v>
@@ -3158,7 +3151,7 @@
       <c r="G92" s="9"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>113</v>
       </c>
@@ -3178,7 +3171,7 @@
       <c r="G93" s="9"/>
       <c r="H93" s="23"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>134</v>
       </c>
@@ -3196,7 +3189,7 @@
       <c r="G94" s="9"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>116</v>
       </c>
@@ -3216,7 +3209,7 @@
       <c r="G95" s="9"/>
       <c r="H95" s="18"/>
     </row>
-    <row r="96" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="14" t="s">
         <v>138</v>
       </c>
@@ -3234,12 +3227,12 @@
       <c r="G96" s="16"/>
       <c r="H96" s="22"/>
     </row>
-    <row r="97" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>232</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>140</v>
@@ -3247,33 +3240,33 @@
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G97" s="16"/>
       <c r="H97" s="22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="33" t="s">
+      <c r="B99" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="31" t="s">
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="32"/>
+      <c r="G99" s="33"/>
       <c r="H99" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>31</v>
       </c>
@@ -3285,7 +3278,7 @@
       <c r="G100" s="29"/>
       <c r="H100" s="30"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>33</v>
       </c>
@@ -3311,7 +3304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>153</v>
       </c>
@@ -3333,7 +3326,7 @@
       <c r="G102" s="9"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>155</v>
       </c>
@@ -3351,7 +3344,7 @@
       <c r="G103" s="9"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>157</v>
       </c>
@@ -3369,7 +3362,7 @@
       <c r="G104" s="9"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>159</v>
       </c>
@@ -3391,7 +3384,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="14" t="s">
         <v>148</v>
       </c>
@@ -3411,26 +3404,26 @@
       <c r="G106" s="16"/>
       <c r="H106" s="22"/>
     </row>
-    <row r="108" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="33" t="s">
+      <c r="B109" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="31" t="s">
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G109" s="32"/>
+      <c r="G109" s="33"/>
       <c r="H109" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>31</v>
       </c>
@@ -3442,7 +3435,7 @@
       <c r="G110" s="29"/>
       <c r="H110" s="30"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>33</v>
       </c>
@@ -3468,7 +3461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>163</v>
       </c>
@@ -3490,7 +3483,7 @@
       <c r="G112" s="9"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>164</v>
       </c>
@@ -3512,7 +3505,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>167</v>
       </c>
@@ -3530,7 +3523,7 @@
       <c r="G114" s="8"/>
       <c r="H114" s="18"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>169</v>
       </c>
@@ -3548,7 +3541,7 @@
       <c r="G115" s="9"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>170</v>
       </c>
@@ -3566,7 +3559,7 @@
       <c r="G116" s="9"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>144</v>
       </c>
@@ -3586,7 +3579,7 @@
       <c r="G117" s="9"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="14" t="s">
         <v>78</v>
       </c>
@@ -3606,26 +3599,26 @@
       <c r="G118" s="16"/>
       <c r="H118" s="22"/>
     </row>
-    <row r="120" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="33" t="s">
+      <c r="B121" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="31" t="s">
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G121" s="32"/>
+      <c r="G121" s="33"/>
       <c r="H121" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>31</v>
       </c>
@@ -3639,7 +3632,7 @@
       <c r="G122" s="29"/>
       <c r="H122" s="30"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>33</v>
       </c>
@@ -3665,7 +3658,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>175</v>
       </c>
@@ -3687,7 +3680,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>141</v>
       </c>
@@ -3709,7 +3702,7 @@
       <c r="G125" s="9"/>
       <c r="H125" s="18"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="27" t="s">
         <v>163</v>
       </c>
@@ -3731,7 +3724,7 @@
       <c r="G126" s="9"/>
       <c r="H126" s="18"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>178</v>
       </c>
@@ -3751,7 +3744,7 @@
       <c r="G127" s="9"/>
       <c r="H127" s="18"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>180</v>
       </c>
@@ -3771,7 +3764,7 @@
       <c r="G128" s="9"/>
       <c r="H128" s="18"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>181</v>
       </c>
@@ -3793,7 +3786,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="14" t="s">
         <v>184</v>
       </c>
@@ -3815,26 +3808,26 @@
         <v>183</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B133" s="33" t="s">
+      <c r="B133" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="31" t="s">
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G133" s="32"/>
+      <c r="G133" s="33"/>
       <c r="H133" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>31</v>
       </c>
@@ -3848,7 +3841,7 @@
       <c r="G134" s="29"/>
       <c r="H134" s="30"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>33</v>
       </c>
@@ -3874,7 +3867,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>187</v>
       </c>
@@ -3896,7 +3889,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>188</v>
       </c>
@@ -3918,7 +3911,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>191</v>
       </c>
@@ -3940,7 +3933,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>194</v>
       </c>
@@ -3960,7 +3953,7 @@
       <c r="G139" s="9"/>
       <c r="H139" s="18"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>196</v>
       </c>
@@ -3980,7 +3973,7 @@
       <c r="G140" s="9"/>
       <c r="H140" s="18"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>192</v>
       </c>
@@ -3998,7 +3991,7 @@
       <c r="G141" s="9"/>
       <c r="H141" s="18"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>198</v>
       </c>
@@ -4020,7 +4013,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>201</v>
       </c>
@@ -4038,7 +4031,7 @@
       <c r="G143" s="9"/>
       <c r="H143" s="18"/>
     </row>
-    <row r="144" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="14" t="s">
         <v>203</v>
       </c>
@@ -4060,26 +4053,26 @@
         <v>205</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="33" t="s">
+      <c r="B146" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="31" t="s">
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G146" s="32"/>
+      <c r="G146" s="33"/>
       <c r="H146" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>31</v>
       </c>
@@ -4093,7 +4086,7 @@
       <c r="G147" s="29"/>
       <c r="H147" s="30"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>33</v>
       </c>
@@ -4119,7 +4112,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
         <v>210</v>
       </c>
@@ -4141,7 +4134,7 @@
       <c r="G149" s="9"/>
       <c r="H149" s="18"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
         <v>144</v>
       </c>
@@ -4161,7 +4154,7 @@
       <c r="G150" s="9"/>
       <c r="H150" s="18"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
         <v>213</v>
       </c>
@@ -4183,7 +4176,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>216</v>
       </c>
@@ -4201,7 +4194,7 @@
       <c r="G152" s="9"/>
       <c r="H152" s="18"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>218</v>
       </c>
@@ -4221,7 +4214,7 @@
       <c r="G153" s="9"/>
       <c r="H153" s="18"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
         <v>220</v>
       </c>
@@ -4239,9 +4232,9 @@
       <c r="G154" s="9"/>
       <c r="H154" s="18"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B155" s="8"/>
       <c r="C155" s="9"/>
@@ -4251,9 +4244,9 @@
       <c r="G155" s="9"/>
       <c r="H155" s="18"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B156" s="8"/>
       <c r="C156" s="9"/>
@@ -4263,7 +4256,7 @@
       <c r="G156" s="9"/>
       <c r="H156" s="18"/>
     </row>
-    <row r="157" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="14"/>
       <c r="B157" s="15"/>
       <c r="C157" s="16"/>
@@ -4275,12 +4268,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F53:G53"/>
     <mergeCell ref="B100:H100"/>
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="F61:G61"/>
@@ -4293,24 +4298,12 @@
     <mergeCell ref="B87:H87"/>
     <mergeCell ref="B99:E99"/>
     <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="F121:G121"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
